--- a/errors_table/errorsTable_15min_LSTM_mseLoss.xlsx
+++ b/errors_table/errorsTable_15min_LSTM_mseLoss.xlsx
@@ -775,100 +775,100 @@
         <v>8</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0157532804</v>
+        <v>0.0131192449</v>
       </c>
       <c r="F5" t="n">
-        <v>0.000470902</v>
+        <v>0.000308829</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0973523557</v>
+        <v>0.0742125213</v>
       </c>
       <c r="H5" t="n">
-        <v>5.6280498505</v>
+        <v>4.6053113937</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0166227557</v>
+        <v>0.0164332055</v>
       </c>
       <c r="J5" t="n">
-        <v>0.000711633</v>
+        <v>0.0005537976000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1712013483</v>
+        <v>0.1182358861</v>
       </c>
       <c r="L5" t="n">
-        <v>9.824978828400001</v>
+        <v>11.1525058746</v>
       </c>
       <c r="M5" t="n">
-        <v>0.08576458181463416</v>
+        <v>0.0818377707304878</v>
       </c>
       <c r="N5" t="n">
-        <v>0.01424927895093201</v>
+        <v>0.01209793948800776</v>
       </c>
       <c r="O5" t="n">
-        <v>0.4563898876000003</v>
+        <v>0.3902369286000003</v>
       </c>
       <c r="P5" t="n">
-        <v>0.01833025164548838</v>
+        <v>0.0178633360980038</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.2146259394914634</v>
+        <v>0.1945812697304878</v>
       </c>
       <c r="R5" t="n">
-        <v>0.07176242321285822</v>
+        <v>0.04526021144083293</v>
       </c>
       <c r="S5" t="n">
-        <v>0.8424468931</v>
+        <v>0.4121204594000005</v>
       </c>
       <c r="T5" t="n">
-        <v>0.04478779510565777</v>
+        <v>0.04182962875173239</v>
       </c>
       <c r="U5" t="n">
-        <v>0.09633702674390256</v>
+        <v>0.08848998830609772</v>
       </c>
       <c r="V5" t="n">
-        <v>0.01548826187388691</v>
+        <v>0.01366713187781579</v>
       </c>
       <c r="W5" t="n">
-        <v>0.3736916650000008</v>
+        <v>0.3646480493999995</v>
       </c>
       <c r="X5" t="n">
-        <v>0.01331870205796255</v>
+        <v>0.01224940581305646</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.1392483023378049</v>
+        <v>0.12127288045</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.02920029753122807</v>
+        <v>0.02271027606741211</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.4198374676000007</v>
+        <v>0.3823389618000004</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.02122011174367279</v>
+        <v>0.01794097147717012</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.09044352200115968</v>
+        <v>0.07962783087689564</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.01219641144390096</v>
+        <v>0.009820395238355756</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.4563898876000003</v>
+        <v>0.4060485868999999</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.0183424040478722</v>
+        <v>0.01616918425406375</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.2568661239349688</v>
+        <v>0.2483081704223461</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.07114319490966882</v>
+        <v>0.06628047493928553</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.8424468931</v>
+        <v>0.5611438993000002</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.05225711040758182</v>
+        <v>0.05056413339588821</v>
       </c>
     </row>
     <row r="6">
@@ -4247,100 +4247,100 @@
         <v>192</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0240436587</v>
+        <v>0.0126370313</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0013827909</v>
+        <v>0.0003076202</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2224218249</v>
+        <v>0.0766711533</v>
       </c>
       <c r="H36" t="n">
-        <v>8.6455955505</v>
+        <v>4.3365049362</v>
       </c>
       <c r="I36" t="n">
-        <v>0.032561399</v>
+        <v>0.0172465891</v>
       </c>
       <c r="J36" t="n">
-        <v>0.0029977444</v>
+        <v>0.0007563926</v>
       </c>
       <c r="K36" t="n">
-        <v>0.2917563021</v>
+        <v>0.1346835494</v>
       </c>
       <c r="L36" t="n">
-        <v>36.7676048279</v>
+        <v>11.1159849167</v>
       </c>
       <c r="M36" t="n">
-        <v>0.1340179127207317</v>
+        <v>0.06306840079512194</v>
       </c>
       <c r="N36" t="n">
-        <v>0.03750692281709675</v>
+        <v>0.008202714067410178</v>
       </c>
       <c r="O36" t="n">
-        <v>0.5743751574000004</v>
+        <v>0.3537708350999997</v>
       </c>
       <c r="P36" t="n">
-        <v>0.03074659870116973</v>
+        <v>0.01365089297242335</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.3486471609085365</v>
+        <v>0.07823681209756098</v>
       </c>
       <c r="R36" t="n">
-        <v>0.2130602437030954</v>
+        <v>0.01526301029178394</v>
       </c>
       <c r="S36" t="n">
-        <v>1.4224493238</v>
+        <v>0.5127636959000004</v>
       </c>
       <c r="T36" t="n">
-        <v>0.08091268635638606</v>
+        <v>0.01686141034126713</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1189889498048781</v>
+        <v>0.0808758250560976</v>
       </c>
       <c r="V36" t="n">
-        <v>0.02726420394210503</v>
+        <v>0.01283922559944707</v>
       </c>
       <c r="W36" t="n">
-        <v>0.4810617185000003</v>
+        <v>0.3766147714999999</v>
       </c>
       <c r="X36" t="n">
-        <v>0.01607163608608999</v>
+        <v>0.01071336272032081</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.3855416595682928</v>
+        <v>0.1001011052195122</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.2353077315129476</v>
+        <v>0.01792016764355401</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.9288383595999994</v>
+        <v>0.4084310862000002</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.04816434601703992</v>
+        <v>0.01306204905904651</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.05833361402301517</v>
+        <v>0.05543934815762713</v>
       </c>
       <c r="AD36" t="n">
-        <v>0.00689273417246456</v>
+        <v>0.004966949148698544</v>
       </c>
       <c r="AE36" t="n">
-        <v>0.5743751574000004</v>
+        <v>0.3766147714999999</v>
       </c>
       <c r="AF36" t="n">
-        <v>0.01178458436571879</v>
+        <v>0.01112281634232976</v>
       </c>
       <c r="AG36" t="n">
-        <v>0.1564089131511597</v>
+        <v>0.06538987808273862</v>
       </c>
       <c r="AH36" t="n">
-        <v>0.03767045852215561</v>
+        <v>0.006531156947756532</v>
       </c>
       <c r="AI36" t="n">
-        <v>1.4224493238</v>
+        <v>0.5127636959000004</v>
       </c>
       <c r="AJ36" t="n">
-        <v>0.03125730056479163</v>
+        <v>0.01304091836364136</v>
       </c>
     </row>
     <row r="37">
